--- a/books.xlsx
+++ b/books.xlsx
@@ -712,17 +712,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Monolith to Microservices</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Evolutionary Patterns to Transform Your Monolith</t>
-        </is>
-      </c>
+          <t>Head First C#</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sam Newman</t>
+          <t>Andrew Stellman</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -732,44 +728,44 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>US$18.79</t>
+          <t>US$20.59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HTML and CSS</t>
+          <t>Monolith to Microservices</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Design and Build Websites</t>
+          <t>Evolutionary Patterns to Transform Your Monolith</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jon Duckett</t>
+          <t>Sam Newman</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>O'Reilly Media</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>US$9.50</t>
+          <t>US$18.79</t>
         </is>
       </c>
     </row>
